--- a/courses.xlsx
+++ b/courses.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -33,6 +33,13 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Microsoft JhengHei UI"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -42,12 +49,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -56,7 +78,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -68,6 +90,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,8 +497,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
@@ -486,62 +514,62 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>星期</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>節</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>課程代碼</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>課程名稱</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>指導老師</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>上課教室</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>課程內容</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>成績分布</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>學分數</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>人數上限</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>已加選人數</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>已選課的學生學號</t>
         </is>
